--- a/biology/Zoologie/Carabe_du_maïs/Carabe_du_maïs.xlsx
+++ b/biology/Zoologie/Carabe_du_maïs/Carabe_du_maïs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carabe_du_ma%C3%AFs</t>
+          <t>Carabe_du_maïs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stenolophus lecontei
 Le carabe du maïs (Stenolophus lecontei) est une espèce d'insectes coléoptères de la famille des Carabidae, originaires d'Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carabe_du_ma%C3%AFs</t>
+          <t>Carabe_du_maïs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petits insectes du sol (moins de 1 cm de long), qui sont surtout des prédateurs de petits insectes mais peuvent aussi nourrir des semences de maïs en cours de germination.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carabe_du_ma%C3%AFs</t>
+          <t>Carabe_du_maïs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition du carabe du maïs s'étend sur la moitié orientale des États-Unis, ainsi qu'en Ontario et au Québec (Canada).
 </t>
